--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>120.6115993333333</v>
+        <v>32.09557633333333</v>
       </c>
       <c r="H2">
-        <v>361.834798</v>
+        <v>96.28672900000001</v>
       </c>
       <c r="I2">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="J2">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N2">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O2">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P2">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q2">
-        <v>6904.912587274427</v>
+        <v>4.702151712189556</v>
       </c>
       <c r="R2">
-        <v>62144.21328546984</v>
+        <v>42.319365409706</v>
       </c>
       <c r="S2">
-        <v>0.4146675590293397</v>
+        <v>0.01283066029663477</v>
       </c>
       <c r="T2">
-        <v>0.4146675590293398</v>
+        <v>0.01283066029663477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>120.6115993333333</v>
+        <v>32.09557633333333</v>
       </c>
       <c r="H3">
-        <v>361.834798</v>
+        <v>96.28672900000001</v>
       </c>
       <c r="I3">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="J3">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q3">
-        <v>189.2596208794893</v>
+        <v>50.36328713267134</v>
       </c>
       <c r="R3">
-        <v>1703.336587915404</v>
+        <v>453.2695841940421</v>
       </c>
       <c r="S3">
-        <v>0.01136579558697851</v>
+        <v>0.1374252189579572</v>
       </c>
       <c r="T3">
-        <v>0.01136579558697851</v>
+        <v>0.1374252189579572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>120.6115993333333</v>
+        <v>32.09557633333333</v>
       </c>
       <c r="H4">
-        <v>361.834798</v>
+        <v>96.28672900000001</v>
       </c>
       <c r="I4">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="J4">
-        <v>0.4273073648704228</v>
+        <v>0.1656600924295661</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P4">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q4">
-        <v>21.21441441060644</v>
+        <v>5.645301619795445</v>
       </c>
       <c r="R4">
-        <v>190.929729695458</v>
+        <v>50.80771457815901</v>
       </c>
       <c r="S4">
-        <v>0.001274010254104524</v>
+        <v>0.0154042131749741</v>
       </c>
       <c r="T4">
-        <v>0.001274010254104525</v>
+        <v>0.0154042131749741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>403.29216</v>
       </c>
       <c r="I5">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="J5">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N5">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O5">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P5">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q5">
-        <v>7696.04561895424</v>
+        <v>19.69472782336</v>
       </c>
       <c r="R5">
-        <v>69264.41057058817</v>
+        <v>177.25255041024</v>
       </c>
       <c r="S5">
-        <v>0.4621782550689609</v>
+        <v>0.05374058044131998</v>
       </c>
       <c r="T5">
-        <v>0.462178255068961</v>
+        <v>0.05374058044132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>403.29216</v>
       </c>
       <c r="I6">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="J6">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.569166</v>
       </c>
       <c r="N6">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q6">
         <v>210.94411517952</v>
@@ -818,10 +818,10 @@
         <v>1898.49703661568</v>
       </c>
       <c r="S6">
-        <v>0.01266803601457656</v>
+        <v>0.5755986725027029</v>
       </c>
       <c r="T6">
-        <v>0.01266803601457656</v>
+        <v>0.5755986725027029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>403.29216</v>
       </c>
       <c r="I7">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="J7">
-        <v>0.4762662715555095</v>
+        <v>0.6938590312037638</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.527671</v>
       </c>
       <c r="O7">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P7">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q7">
         <v>23.64506415104</v>
@@ -880,10 +880,10 @@
         <v>212.80557735936</v>
       </c>
       <c r="S7">
-        <v>0.001419980471972081</v>
+        <v>0.0645197782597409</v>
       </c>
       <c r="T7">
-        <v>0.001419980471972081</v>
+        <v>0.0645197782597409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>81.651796</v>
       </c>
       <c r="I8">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="J8">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N8">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O8">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P8">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q8">
-        <v>1558.165541540766</v>
+        <v>3.987456385238223</v>
       </c>
       <c r="R8">
-        <v>14023.4898738669</v>
+        <v>35.88710746714401</v>
       </c>
       <c r="S8">
-        <v>0.09357405955654272</v>
+        <v>0.01088048652152387</v>
       </c>
       <c r="T8">
-        <v>0.09357405955654274</v>
+        <v>0.01088048652152387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>81.651796</v>
       </c>
       <c r="I9">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="J9">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.569166</v>
       </c>
       <c r="N9">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q9">
-        <v>42.70840737404533</v>
+        <v>42.70840737404534</v>
       </c>
       <c r="R9">
         <v>384.375666366408</v>
       </c>
       <c r="S9">
-        <v>0.002564810316131259</v>
+        <v>0.1165375131147144</v>
       </c>
       <c r="T9">
-        <v>0.002564810316131259</v>
+        <v>0.1165375131147144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>81.651796</v>
       </c>
       <c r="I10">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="J10">
-        <v>0.09642636357406766</v>
+        <v>0.1404808763666701</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.527671</v>
       </c>
       <c r="O10">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P10">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q10">
         <v>4.787253871901778</v>
@@ -1066,10 +1066,10 @@
         <v>43.085284847116</v>
       </c>
       <c r="S10">
-        <v>0.0002874937013936697</v>
+        <v>0.01306287673043185</v>
       </c>
       <c r="T10">
-        <v>0.0002874937013936698</v>
+        <v>0.01306287673043185</v>
       </c>
     </row>
   </sheetData>
